--- a/templates/phong-trao.xlsx
+++ b/templates/phong-trao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\FileStore\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB527DE4-FE5D-48AB-B7A9-63CC35DCC425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8539C-D357-4E1D-92D3-4045B92C31E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,9 @@
     <t>SoPhatDong</t>
   </si>
   <si>
+    <t>NgayPhatDong</t>
+  </si>
+  <si>
     <t>PhongChuTri</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
   </si>
   <si>
     <t>1556/PCĐN-TCNS</t>
-  </si>
-  <si>
-    <t>PhongTraoNgay</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -559,42 +559,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>44299</v>
@@ -606,10 +606,10 @@
         <v>44571</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1">
         <v>44314</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>44299</v>
@@ -632,10 +632,10 @@
         <v>44571</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1">
         <v>44314</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>44299</v>
@@ -658,10 +658,10 @@
         <v>44571</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1">
         <v>44306</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>44299</v>
@@ -684,10 +684,10 @@
         <v>44571</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1">
         <v>44314</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>44299</v>
@@ -710,10 +710,10 @@
         <v>44571</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1">
         <v>44306</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>44299</v>
@@ -736,10 +736,10 @@
         <v>44571</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1">
         <v>44306</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1">
         <v>44315</v>
@@ -763,15 +763,15 @@
         <v>44571</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>44315</v>
@@ -784,15 +784,15 @@
         <v>44571</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>44315</v>
@@ -805,7 +805,7 @@
         <v>44571</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
